--- a/conf/test_data.xlsx
+++ b/conf/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="185">
   <si>
     <t>功能模块</t>
   </si>
@@ -116,16 +116,19 @@
     <t>chuyao_stand_WhiteSkirt_1080p_10s.mp4</t>
   </si>
   <si>
-    <t>/home/aitest/dora/AutoTest_666/result_models/3dbaaabb-7564-4137-b9c5-17f6e2c5a49d.zip</t>
-  </si>
-  <si>
-    <t>/home/aitest/dora/AutoTest_666/result_inference/26cfcd7c-4dd2-478e-bc37-2bc434c28d2c_package.zip</t>
+    <t>/home/aitest/dora/AutoTest_303/result_models/9d1bde1a-1573-45c1-8c73-92f97f1c4d68.zip</t>
+  </si>
+  <si>
+    <t>/home/aitest/dora/AutoTest_303/result_inference/b702750f-7b3c-4602-ac17-566bc1f673d2_package.zip</t>
   </si>
   <si>
     <t>chinese_live_girl_voice_1.wav</t>
   </si>
   <si>
-    <t>/home/aitest/dora/AutoTest_666/result_video/9bfca07d-2e08-4bb9-82c7-417a8d365d0d.mp4</t>
+    <t>/home/aitest/dora/AutoTest_303/result_video/6665ade6-2ea5-400f-bdf0-96ffd777edcc.mp4</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>(chuyao_stand_WhiteSkirt_1080p_10s.mp4,chuyao_stand_WhiteSkirt_1080p_10s.mp4,chinese_live_girl_voice_1.wav)</t>
@@ -148,10 +151,7 @@
     <t>test_create_video_from_pretrain_model</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>7f4fabf0-3618-445d-9ad2-453465130a1d_package.zip</t>
+    <t>e524cb70-062b-4d1d-acf0-d5c3f5784a0a_package.zip</t>
   </si>
   <si>
     <t>1_test_audio</t>
@@ -200,7 +200,7 @@
     <t>1_test_origin_video</t>
   </si>
   <si>
-    <t>{'create_model_train_quality_test_chuyao_stand_WhiteSkirt_1080p_10s_2023-09-13-18-11-24-282538': '/home/aitest/dora/AutoTest_666/result_models/3424d980-8737-4d66-9d91-5eb8149f49ff.zip'}</t>
+    <t>{'create_model_train_quality_test_chuyao_stand_WhiteSkirt_1080p_10s_2023-09-14-13-14-33-041789': '/home/aitest/dora/AutoTest_303/result_models/508026bb-ea68-4a59-b008-0c5299b8033d.zip'}</t>
   </si>
   <si>
     <t>meimei_sit_WhiteSkirt_2314MB_10min17s_sure.mp4</t>
@@ -239,7 +239,7 @@
     <t>test_create_inference</t>
   </si>
   <si>
-    <t>{'create_inference_package_chuyao_stand_WhiteSkirt_1080p_10s_2023-09-13-18-13-21': '/home/aitest/dora/AutoTest_666/result_inference/0c624434-6604-4ccd-ac4f-bbbb1fea06ab_package.zip'}</t>
+    <t>{'create_inference_package_chuyao_stand_WhiteSkirt_1080p_10s_2023-09-14-13-16-32': '/home/aitest/dora/AutoTest_303/result_inference/91ffb0f5-dfb0-469e-8cb3-d06436233ea2_package.zip'}</t>
   </si>
   <si>
     <t>meimei_sit_WhiteSkirt_2314MB_1min_headsilence_sure.mp4</t>
@@ -255,7 +255,10 @@
     <t>test_create_video</t>
   </si>
   <si>
-    <t>3dbaaabb-7564-4137-b9c5-17f6e2c5a49d/3dbaaabb-7564-4137-b9c5-17f6e2c5a49d.zip</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>b3f5e35c-ea1a-4980-b6f6-7f5703ff29e1/b3f5e35c-ea1a-4980-b6f6-7f5703ff29e1.zip</t>
   </si>
   <si>
     <t>26cfcd7c-4dd2-478e-bc37-2bc434c28d2c_package.zip</t>
@@ -267,7 +270,7 @@
     <t>chinese_girl_voice_3.wav</t>
   </si>
   <si>
-    <t>['/home/aitest/dora/AutoTest_999/result_video/6f0a607e-dfbd-441b-98a6-29166a831863.mp4']</t>
+    <t>['/home/aitest/dora/AutoTest_303/result_video/1b4ee08b-beba-4904-a6cf-40617a782e03.mp4']</t>
   </si>
   <si>
     <t>给每个quality批量训练model</t>
@@ -314,7 +317,7 @@
     <t xml:space="preserve">--label_config_base64 ewogICJmcmFtZXMiOiBbCiAgICAiMDA6MDA6MDA6NCIsCiAgICAiMDA6MDA6MDE6MTAiLAogICAgIjAwOjAwOjI6MTYiLAogICAgIjAwOjAwOjU6MTgiLAogICAgIjAwOjAwOjMwOjEwIiwKICAgICIwMDowMDo1MjoxMCIsCiAgICAiMDA6MDA6NTY6OSIKICBdLAogICJhY3Rpb24iOiBbCiAgICB7CiAgICAgICJuYW1lIjogImhlc2h1aSIsCiAgICAgICJzdGFydF90aW1lIjogIjAwOjAwOjAwOjAwIiwKICAgICAgImVuZF90aW1lIjogIjAwOjAwOjEwOjAwIgogICAgfSwKICAgIHsKICAgICAgIm5hbWUiOiAieHgiLAogICAgICAic3RhcnRfdGltZSI6ICIwMDowMDoxMDowMCIsCiAgICAgICJlbmRfdGltZSI6ICIwMDowMDoyMDowMCIKICAgIH0KICBdCn0K </t>
   </si>
   <si>
-    <t>{'create_inference_package_meimei_sit_WhiteSkirt_2314MB_1min_headsilence_sure_2023-09-13-18-13-51': '/home/aitest/dora/AutoTest_666/result_inference/7183f868-29bf-4c7c-aaa9-82884dd476e5_package.zip'}</t>
+    <t>{'create_inference_package_meimei_sit_WhiteSkirt_2314MB_1min_headsilence_sure_2023-09-14-13-17-04': '/home/aitest/dora/AutoTest_303/result_inference/1e4b595e-1f89-4f59-9535-bf5f8fac824d_package.zip'}</t>
   </si>
   <si>
     <t>使用正常视频批量训练model</t>
@@ -444,11 +447,13 @@
     <t>test_create_video_batch</t>
   </si>
   <si>
-    <t>chinese_girl_voice_1.wav,chinese_girl_voice_2.wav,chinese_girl_voice_3.wav,chinese_live_girl_voice_1.wav,chinese_live_man_voice_1.wav,chinese_man_voice_1.wav,chinese_man_voice_2.wav,chinese_microsoft_girl_voice_1.wav,chinese_microsoft_girl_voice_2.wav,chinese_microsoft_man_voice_1.wav,chinese_microsoft_man_voice_2.wav,chinese_microsoft_man_voice_3.wav,Chinese_raokouling_45s_F.wav,Chinese_raokouling_46s_M.wav,dr_zheng_intro.wav,indonesian_girl_voice_1.WAV
-,apanese_microsoft_girl_voice_1.wav,mono_128k.WAV,spanish_girl_voice_1.WAV,bate_128k.WAV,bate_256k.WAV,bate_320k.WAV</t>
-  </si>
-  <si>
-    <t>['/home/aitest/dora/AutoTest_999/result_video/780e9466-ecfa-4cb5-9274-df29cec20225.mp4', '/home/aitest/dora/AutoTest_999/result_video/bc935a6c-a219-427d-b18b-dde483cd0ec8.mp4']</t>
+    <t>2128b2e6-3149-4dd6-aeb0-3c6be40be6ad/2128b2e6-3149-4dd6-aeb0-3c6be40be6ad.zip</t>
+  </si>
+  <si>
+    <t>chinese_girl_voice_1.wav,chinese_girl_voice_2.wav</t>
+  </si>
+  <si>
+    <t>['/home/aitest/dora/AutoTest_303/result_video/dff1d76c-47fb-48c6-be6e-148ef38f2697.mp4', '/home/aitest/dora/AutoTest_303/result_video/f584f32d-f07f-4b91-81ee-fe81c87087ab.mp4']</t>
   </si>
   <si>
     <t>正常音频：
@@ -583,22 +588,19 @@
     <t>jinkins_num</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>test message record</t>
   </si>
   <si>
     <t>test_time</t>
   </si>
   <si>
-    <t>2023-09-13-21-44-37-524254</t>
+    <t>2023-09-14-13-30-15-464431</t>
   </si>
   <si>
     <t>case_scope</t>
   </si>
   <si>
-    <t>video_batch</t>
+    <t>ALL_CASES</t>
   </si>
 </sst>
 </file>
@@ -606,7 +608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +619,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -681,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,11 +706,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -722,13 +739,19 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1039,70 +1062,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="43.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="43.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>172</v>
+      <c r="A1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>174</v>
+      <c r="A2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
-      <c r="A3" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="B4" s="3">
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>181</v>
       </c>
+      <c r="B8" s="19" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
-      <c r="A9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>183</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1124,35 +1147,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="54">
@@ -1262,13 +1285,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>18</v>
@@ -1277,13 +1300,13 @@
         <v>19</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>21</v>
@@ -1345,7 +1368,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -1373,16 +1396,16 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1393,20 +1416,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1500,12 +1523,12 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="1"/>
       <c r="W7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1531,7 +1554,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>29</v>
@@ -1553,7 +1576,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>60</v>
@@ -1636,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1647,11 +1670,11 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>73</v>
@@ -1667,7 +1690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="36">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>74</v>
@@ -1683,7 +1706,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1694,7 +1717,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1725,7 +1748,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1741,23 +1764,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="36">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1768,7 +1791,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1784,22 +1807,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="72">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1815,7 +1838,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="1"/>
@@ -1829,20 +1852,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="36">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>52</v>
@@ -1863,7 +1886,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="1"/>
       <c r="W15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1875,13 +1898,13 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="36">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
@@ -1918,23 +1941,23 @@
       <c r="AC16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="72">
-      <c r="A17" s="6" t="s">
-        <v>166</v>
+      <c r="A17" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>52</v>
@@ -1948,7 +1971,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1963,13 +1986,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="36">
-      <c r="A18" s="1"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
@@ -1983,7 +2006,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1998,21 +2021,21 @@
       <c r="AC18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>167</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2037,19 +2060,19 @@
       <c r="AC19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2074,21 +2097,21 @@
       <c r="AC20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>168</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2113,19 +2136,19 @@
       <c r="AC21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2150,13 +2173,13 @@
       <c r="AC22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2181,19 +2204,19 @@
       <c r="AC23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
-      <c r="A24" s="1"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2210,7 +2233,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="1"/>
       <c r="W24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -2222,17 +2245,17 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>52</v>
@@ -2261,21 +2284,21 @@
       <c r="AC25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.3">
-      <c r="A26" s="6" t="s">
-        <v>169</v>
+      <c r="A26" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>52</v>
@@ -2289,7 +2312,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -2304,13 +2327,13 @@
       <c r="AC26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="36">
-      <c r="A27" s="1"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
@@ -2326,7 +2349,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2341,18 +2364,18 @@
       <c r="AC27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>167</v>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2380,16 +2403,16 @@
       <c r="AC28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>52</v>
       </c>
@@ -2417,18 +2440,18 @@
       <c r="AC29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="36">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6" t="s">
-        <v>168</v>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2456,12 +2479,12 @@
       <c r="AC30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2487,18 +2510,18 @@
       <c r="AC31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="54">
-      <c r="A32" s="1"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3" t="s">
         <v>52</v>
       </c>
@@ -2527,20 +2550,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="36">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>52</v>
@@ -2571,13 +2594,13 @@
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="72">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
@@ -2608,23 +2631,23 @@
       <c r="AC34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="36">
-      <c r="A35" s="6" t="s">
-        <v>170</v>
+      <c r="A35" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2640,10 +2663,10 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -2655,15 +2678,15 @@
       <c r="AC35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="36">
-      <c r="A36" s="1"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
@@ -2681,10 +2704,10 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -2696,20 +2719,20 @@
       <c r="AC36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="72">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2724,10 +2747,10 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -2739,20 +2762,20 @@
       <c r="AC37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="108">
-      <c r="A38" s="1"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="F38" s="10"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2767,10 +2790,10 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -2782,12 +2805,12 @@
       <c r="AC38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2813,12 +2836,12 @@
       <c r="AC39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="1"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2834,7 +2857,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -2846,12 +2869,12 @@
       <c r="AC40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="108">
-      <c r="A41" s="1"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -8584,33 +8607,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -8828,12 +8851,14 @@
       <c r="S4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -8843,20 +8868,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="100.5">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -8866,9 +8891,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
         <v>43</v>
       </c>
@@ -8958,7 +8981,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -9006,7 +9029,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U8" s="3" t="s">
         <v>60</v>
       </c>
@@ -9102,7 +9127,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U10" s="3" t="s">
         <v>73</v>
       </c>
@@ -9115,7 +9142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="116.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>74</v>
@@ -9131,7 +9158,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -9141,21 +9168,23 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -9195,23 +9224,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="147.75">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -9236,22 +9265,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="352.5">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -9261,20 +9290,22 @@
         <v>30</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -9283,22 +9314,22 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="36">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="132">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>52</v>
@@ -9318,7 +9349,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -9326,32 +9357,32 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.75">
-      <c r="A16" s="6"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -9372,21 +9403,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
-      <c r="A17" s="1"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>52</v>
@@ -9413,17 +9444,17 @@
       <c r="AA17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -9446,19 +9477,19 @@
       <c r="AA18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -9481,19 +9512,19 @@
       <c r="AA19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -9515,20 +9546,20 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="116.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -9551,21 +9582,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
-      <c r="A22" s="1"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -9588,13 +9619,13 @@
       <c r="AA22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="36">
-      <c r="A23" s="1"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -9618,20 +9649,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>52</v>
@@ -9651,7 +9682,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -9660,19 +9691,19 @@
       <c r="AA24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>52</v>
@@ -9699,19 +9730,19 @@
       <c r="AA25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="132">
-      <c r="A26" s="1"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>52</v>
@@ -9738,16 +9769,16 @@
       <c r="AA26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="3" t="s">
         <v>52</v>
       </c>
@@ -9773,16 +9804,16 @@
       <c r="AA27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
         <v>52</v>
       </c>
@@ -9808,16 +9839,16 @@
       <c r="AA28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>52</v>
       </c>
@@ -9843,16 +9874,16 @@
       <c r="AA29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="116.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
         <v>52</v>
       </c>
@@ -9878,12 +9909,12 @@
       <c r="AA30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21.75">
-      <c r="A31" s="1"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -9908,20 +9939,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="163.5">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>52</v>
@@ -9949,20 +9980,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="100.5">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>52</v>
@@ -9975,21 +10006,23 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="T33" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="U33" s="3"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -9999,15 +10032,15 @@
       <c r="AA33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="226.5">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
@@ -10036,21 +10069,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="163.5">
-      <c r="A35" s="1"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -10067,7 +10100,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -10077,18 +10110,18 @@
       <c r="AA35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="72">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -10104,7 +10137,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -10114,20 +10147,20 @@
       <c r="AA36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="108">
-      <c r="A37" s="1"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -10143,7 +10176,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -10153,20 +10186,20 @@
       <c r="AA37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="108">
-      <c r="A38" s="1"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="F38" s="10"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -10181,8 +10214,8 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="8" t="s">
-        <v>155</v>
+      <c r="U38" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -10192,12 +10225,12 @@
       <c r="AA38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="1"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -10221,12 +10254,12 @@
       <c r="AA39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="108">
-      <c r="A40" s="1"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -10242,7 +10275,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
